--- a/data/trans_orig/P1805_2016_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1805_2016_2023-Edad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>8264</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3836</v>
+        <v>3793</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15643</v>
+        <v>14606</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01970046692001894</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009144727658559792</v>
+        <v>0.00904254191320749</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0372936720267286</v>
+        <v>0.03482150691673213</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -763,19 +763,19 @@
         <v>8193</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3578</v>
+        <v>3688</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16459</v>
+        <v>16349</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02070320977882833</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009042125784533389</v>
+        <v>0.009319220810015547</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04158947203885028</v>
+        <v>0.04130972802832676</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>15</v>
@@ -784,19 +784,19 @@
         <v>16457</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9557</v>
+        <v>9162</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>27139</v>
+        <v>26364</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02018725757275401</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01172309172810344</v>
+        <v>0.01123916944612165</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03329033080889416</v>
+        <v>0.03233992301679244</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>411199</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>403820</v>
+        <v>404857</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>415627</v>
+        <v>415670</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9802995330799811</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9627063279732714</v>
+        <v>0.9651784930832679</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9908552723414402</v>
+        <v>0.9909574580867926</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>397</v>
@@ -834,19 +834,19 @@
         <v>387562</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>379296</v>
+        <v>379406</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>392177</v>
+        <v>392067</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9792967902211717</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9584105279611493</v>
+        <v>0.9586902719716729</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9909578742154665</v>
+        <v>0.9906807791899844</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>782</v>
@@ -855,19 +855,19 @@
         <v>798761</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>788079</v>
+        <v>788854</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>805661</v>
+        <v>806056</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.979812742427246</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9667096691911059</v>
+        <v>0.9676600769832086</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9882769082718965</v>
+        <v>0.9887608305538788</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>7486</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3278</v>
+        <v>3046</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15115</v>
+        <v>15212</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01267769615945943</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005550572105237565</v>
+        <v>0.005158814928202317</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02559662579758637</v>
+        <v>0.02576192156139539</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -980,19 +980,19 @@
         <v>11898</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6332</v>
+        <v>5981</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19693</v>
+        <v>19738</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02111258642462284</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01123660865288801</v>
+        <v>0.01061269136379017</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03494536830720955</v>
+        <v>0.03502558314168804</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>19</v>
@@ -1001,19 +1001,19 @@
         <v>19384</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11438</v>
+        <v>12087</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>29134</v>
+        <v>30593</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01679664295094585</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.009911313214340772</v>
+        <v>0.01047357440966051</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02524485109953272</v>
+        <v>0.0265096857612811</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>583010</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>575381</v>
+        <v>575284</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>587218</v>
+        <v>587450</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9873223038405405</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9744033742024136</v>
+        <v>0.9742380784386045</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9944494278947624</v>
+        <v>0.9948411850717976</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>567</v>
@@ -1051,19 +1051,19 @@
         <v>551646</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>543851</v>
+        <v>543806</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>557212</v>
+        <v>557563</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9788874135753771</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9650546316927903</v>
+        <v>0.9649744168583112</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9887633913471119</v>
+        <v>0.9893873086362076</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1127</v>
@@ -1072,19 +1072,19 @@
         <v>1134656</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1124906</v>
+        <v>1123447</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1142602</v>
+        <v>1141953</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9832033570490541</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9747551489004673</v>
+        <v>0.973490314238719</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9900886867856593</v>
+        <v>0.9895264255903395</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>17387</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9706</v>
+        <v>10508</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26874</v>
+        <v>27488</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02598580217492162</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01450582754477651</v>
+        <v>0.0157050352994668</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04016465738820665</v>
+        <v>0.04108157369896098</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -1197,19 +1197,19 @@
         <v>21290</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13707</v>
+        <v>13857</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>32764</v>
+        <v>32437</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03218996119972217</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02072510092326475</v>
+        <v>0.02095161109248939</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04953791832406365</v>
+        <v>0.04904324023802143</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>38</v>
@@ -1218,19 +1218,19 @@
         <v>38677</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>28191</v>
+        <v>27269</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>52181</v>
+        <v>53820</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02906990452509724</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02118847117479297</v>
+        <v>0.02049559112576928</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03921939293900117</v>
+        <v>0.04045135769675336</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>651710</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>642223</v>
+        <v>641609</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>659391</v>
+        <v>658589</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9740141978250784</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9598353426117932</v>
+        <v>0.9589184263010386</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9854941724552234</v>
+        <v>0.9842949647005332</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>644</v>
@@ -1268,19 +1268,19 @@
         <v>640096</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>628622</v>
+        <v>628949</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>647679</v>
+        <v>647529</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9678100388002778</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9504620816759364</v>
+        <v>0.9509567597619786</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9792748990767354</v>
+        <v>0.9790483889075108</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1265</v>
@@ -1289,19 +1289,19 @@
         <v>1291806</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1278302</v>
+        <v>1276663</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1302292</v>
+        <v>1303214</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9709300954749027</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9607806070609982</v>
+        <v>0.9595486423032465</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9788115288252069</v>
+        <v>0.9795044088742305</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>12255</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6346</v>
+        <v>6988</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20507</v>
+        <v>20737</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01896885897238048</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009822421683949648</v>
+        <v>0.01081590698438138</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03174146343799145</v>
+        <v>0.03209808541323852</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -1414,19 +1414,19 @@
         <v>27283</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18482</v>
+        <v>18438</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>41067</v>
+        <v>40224</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04203399810411055</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02847436948685682</v>
+        <v>0.02840632572917675</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06327005010364785</v>
+        <v>0.06197123365455924</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>37</v>
@@ -1435,19 +1435,19 @@
         <v>39538</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>28233</v>
+        <v>27688</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>54297</v>
+        <v>53271</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03052839736733966</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02179950424930243</v>
+        <v>0.02137844808781297</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04192375993733188</v>
+        <v>0.04113180496405063</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>633793</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>625541</v>
+        <v>625311</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>639702</v>
+        <v>639060</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9810311410276196</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9682585365620087</v>
+        <v>0.9679019145867618</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9901775783160504</v>
+        <v>0.9891840930156186</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>577</v>
@@ -1485,19 +1485,19 @@
         <v>621794</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>608010</v>
+        <v>608853</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>630595</v>
+        <v>630639</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9579660018958894</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9367299498963522</v>
+        <v>0.9380287663454407</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9715256305131431</v>
+        <v>0.9715936742708232</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1147</v>
@@ -1506,19 +1506,19 @@
         <v>1255587</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1240828</v>
+        <v>1241854</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1266892</v>
+        <v>1267437</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9694716026326603</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.958076240062668</v>
+        <v>0.9588681950359493</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9782004957506976</v>
+        <v>0.978621551912187</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>8231</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3203</v>
+        <v>3239</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16150</v>
+        <v>16373</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0172222909671634</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006702933241731776</v>
+        <v>0.006778328090506704</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03379290749699838</v>
+        <v>0.03425812247298868</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>24</v>
@@ -1631,19 +1631,19 @@
         <v>27232</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>17865</v>
+        <v>18107</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>39135</v>
+        <v>40209</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0548102946539725</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03595686825709424</v>
+        <v>0.0364446639291242</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07876690954366933</v>
+        <v>0.08092788691130411</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>31</v>
@@ -1652,19 +1652,19 @@
         <v>35463</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>25377</v>
+        <v>24758</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>49975</v>
+        <v>50577</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03638129214244445</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02603368145217757</v>
+        <v>0.02539848243592339</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0512689535943477</v>
+        <v>0.05188631671963577</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>469687</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>461768</v>
+        <v>461545</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>474715</v>
+        <v>474679</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9827777090328366</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9662070925030017</v>
+        <v>0.9657418775270113</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9932970667582683</v>
+        <v>0.9932216719094933</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>409</v>
@@ -1702,19 +1702,19 @@
         <v>469617</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>457714</v>
+        <v>456640</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>478984</v>
+        <v>478742</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9451897053460275</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9212330904563308</v>
+        <v>0.919072113088696</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9640431317429057</v>
+        <v>0.9635553360708758</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>826</v>
@@ -1723,19 +1723,19 @@
         <v>939304</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>924792</v>
+        <v>924190</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>949390</v>
+        <v>950009</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9636187078575555</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9487310464056529</v>
+        <v>0.9481136832803645</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9739663185478226</v>
+        <v>0.9746015175640766</v>
       </c>
     </row>
     <row r="18">
@@ -1827,19 +1827,19 @@
         <v>3714</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9386</v>
+        <v>9462</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01110900072195208</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.002768741950764764</v>
+        <v>0.002767441250540799</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02807385608190935</v>
+        <v>0.02830057181486104</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>14</v>
@@ -1848,19 +1848,19 @@
         <v>16516</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9776</v>
+        <v>9067</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>27297</v>
+        <v>27423</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04372046238796808</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02587885979464229</v>
+        <v>0.02400155542429612</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07225883778603602</v>
+        <v>0.07259272678867522</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>18</v>
@@ -1869,19 +1869,19 @@
         <v>20230</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>12837</v>
+        <v>12336</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>33770</v>
+        <v>32657</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02840925270937555</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01802769978883762</v>
+        <v>0.01732337712990404</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04742338946468007</v>
+        <v>0.04586081382732568</v>
       </c>
     </row>
     <row r="20">
@@ -1898,19 +1898,19 @@
         <v>330616</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>324944</v>
+        <v>324868</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>333404</v>
+        <v>333405</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9888909992780479</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9719261439180907</v>
+        <v>0.9716994281851389</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9972312580492352</v>
+        <v>0.9972325587494593</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>340</v>
@@ -1919,19 +1919,19 @@
         <v>361246</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>350465</v>
+        <v>350339</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>367986</v>
+        <v>368695</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9562795376120319</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.927741162213964</v>
+        <v>0.9274072732113248</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9741211402053577</v>
+        <v>0.9759984445757039</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>661</v>
@@ -1940,19 +1940,19 @@
         <v>691862</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>678322</v>
+        <v>679435</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>699255</v>
+        <v>699756</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9715907472906244</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9525766105353198</v>
+        <v>0.9541391861726743</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9819723002111623</v>
+        <v>0.9826766228700961</v>
       </c>
     </row>
     <row r="21">
@@ -2044,19 +2044,19 @@
         <v>3727</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>804</v>
+        <v>896</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>9493</v>
+        <v>9065</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01450040578684116</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.00312728740013136</v>
+        <v>0.003485856127360682</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03693856747165591</v>
+        <v>0.03527253972621825</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>14</v>
@@ -2065,19 +2065,19 @@
         <v>18526</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>10324</v>
+        <v>10247</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>29193</v>
+        <v>32357</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04629452795919958</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02580007137745674</v>
+        <v>0.02560777520867953</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07295261748619508</v>
+        <v>0.08085870517268319</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>18</v>
@@ -2086,19 +2086,19 @@
         <v>22252</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>13537</v>
+        <v>13538</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>34073</v>
+        <v>34738</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03386081500990362</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02059878620029608</v>
+        <v>0.02060111726893342</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05184859021958266</v>
+        <v>0.05286067075274626</v>
       </c>
     </row>
     <row r="23">
@@ -2115,19 +2115,19 @@
         <v>253271</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>247505</v>
+        <v>247933</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>256194</v>
+        <v>256102</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9854995942131588</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9630614325283442</v>
+        <v>0.9647274602737818</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9968727125998686</v>
+        <v>0.9965141438726394</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>287</v>
@@ -2136,19 +2136,19 @@
         <v>381643</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>370976</v>
+        <v>367812</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>389845</v>
+        <v>389922</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9537054720408005</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9270473825138046</v>
+        <v>0.9191412948273171</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9741999286225431</v>
+        <v>0.9743922247913205</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>585</v>
@@ -2157,19 +2157,19 @@
         <v>634915</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>623094</v>
+        <v>622429</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>643630</v>
+        <v>643629</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9661391849900964</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9481514097804173</v>
+        <v>0.9471393292472539</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.979401213799704</v>
+        <v>0.9793988827310666</v>
       </c>
     </row>
     <row r="24">
@@ -2261,19 +2261,19 @@
         <v>61063</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>46781</v>
+        <v>46892</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>78981</v>
+        <v>79159</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01798961416410113</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01378210242144679</v>
+        <v>0.01381486521932425</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02326835330569722</v>
+        <v>0.02332095191740951</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>117</v>
@@ -2282,19 +2282,19 @@
         <v>130939</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>109804</v>
+        <v>109774</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>157834</v>
+        <v>158471</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03694089890581467</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03097832295431817</v>
+        <v>0.03096975828224681</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04452888334923696</v>
+        <v>0.04470853205021531</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>176</v>
@@ -2303,19 +2303,19 @@
         <v>192002</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>164497</v>
+        <v>163084</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>220810</v>
+        <v>221270</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02767035590064896</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02370652287993969</v>
+        <v>0.02350293450290672</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03182202900836666</v>
+        <v>0.03188838294919832</v>
       </c>
     </row>
     <row r="26">
@@ -2332,19 +2332,19 @@
         <v>3333287</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3315369</v>
+        <v>3315191</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3347569</v>
+        <v>3347458</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9820103858358988</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9767316466943028</v>
+        <v>0.9766790480825905</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9862178975785532</v>
+        <v>0.9861851347806757</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3221</v>
@@ -2353,19 +2353,19 @@
         <v>3413603</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3386708</v>
+        <v>3386071</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3434738</v>
+        <v>3434768</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9630591010941854</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.955471116650763</v>
+        <v>0.9552914679497847</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9690216770456819</v>
+        <v>0.9690302417177532</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6393</v>
@@ -2374,19 +2374,19 @@
         <v>6746890</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6718082</v>
+        <v>6717622</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6774395</v>
+        <v>6775808</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9723296440993511</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9681779709916331</v>
+        <v>0.9681116170508012</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9762934771200601</v>
+        <v>0.9764970654970933</v>
       </c>
     </row>
     <row r="27">
@@ -2721,19 +2721,19 @@
         <v>18414</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7936</v>
+        <v>7664</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>38011</v>
+        <v>35009</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.04515631489968942</v>
+        <v>0.04515631489968943</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01946196183189961</v>
+        <v>0.01879272012285246</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09321206407135879</v>
+        <v>0.08585048116769378</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -2742,19 +2742,19 @@
         <v>20055</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10698</v>
+        <v>9784</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>35917</v>
+        <v>34730</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05532276081034679</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02951118626179068</v>
+        <v>0.02699041208927658</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09907699573726132</v>
+        <v>0.095803549643662</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>17</v>
@@ -2763,19 +2763,19 @@
         <v>38470</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>24498</v>
+        <v>22054</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>62769</v>
+        <v>58259</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.04994072913229556</v>
+        <v>0.04994072913229557</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03180311076898844</v>
+        <v>0.02863045998502615</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08148632890624991</v>
+        <v>0.07563093081220662</v>
       </c>
     </row>
     <row r="5">
@@ -2792,19 +2792,19 @@
         <v>389379</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>369782</v>
+        <v>372784</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>399857</v>
+        <v>400129</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9548436851003108</v>
+        <v>0.9548436851003106</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9067879359286409</v>
+        <v>0.9141495188323062</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9805380381681004</v>
+        <v>0.9812072798771475</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>197</v>
@@ -2813,19 +2813,19 @@
         <v>342457</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>326595</v>
+        <v>327782</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>351814</v>
+        <v>352728</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9446772391896532</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.900923004262739</v>
+        <v>0.9041964503563379</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9704888137382111</v>
+        <v>0.9730095879107237</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>362</v>
@@ -2834,19 +2834,19 @@
         <v>731835</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>707536</v>
+        <v>712046</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>745807</v>
+        <v>748251</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9500592708677047</v>
+        <v>0.9500592708677044</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9185136710937506</v>
+        <v>0.9243690691877938</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9681968892310118</v>
+        <v>0.9713695400149741</v>
       </c>
     </row>
     <row r="6">
@@ -2938,19 +2938,19 @@
         <v>12895</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6020</v>
+        <v>6111</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24038</v>
+        <v>25999</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.02704078012134283</v>
+        <v>0.02704078012134282</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01262319646483818</v>
+        <v>0.01281457776181472</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05040507419675479</v>
+        <v>0.05451799978803581</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -2959,19 +2959,19 @@
         <v>19727</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11071</v>
+        <v>11542</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>31000</v>
+        <v>32083</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03936972128428127</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02209346209889381</v>
+        <v>0.02303388758917317</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06186554193307192</v>
+        <v>0.06402633630053638</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>24</v>
@@ -2980,19 +2980,19 @@
         <v>32623</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>21803</v>
+        <v>21490</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>50656</v>
+        <v>48268</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03335774561144915</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02229375578641922</v>
+        <v>0.02197359835621641</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05179716804715596</v>
+        <v>0.04935509862842966</v>
       </c>
     </row>
     <row r="8">
@@ -3009,19 +3009,19 @@
         <v>463995</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>452852</v>
+        <v>450891</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>470870</v>
+        <v>470779</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9729592198786572</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9495949258032451</v>
+        <v>0.9454820002119642</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9873768035351618</v>
+        <v>0.9871854222381853</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>444</v>
@@ -3030,19 +3030,19 @@
         <v>481356</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>470083</v>
+        <v>469000</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>490012</v>
+        <v>489541</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9606302787157187</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.938134458066928</v>
+        <v>0.9359736636994637</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9779065379011062</v>
+        <v>0.976966112410827</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>738</v>
@@ -3051,19 +3051,19 @@
         <v>945350</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>927317</v>
+        <v>929705</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>956170</v>
+        <v>956483</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9666422543885508</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9482028319528429</v>
+        <v>0.9506449013715704</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9777062442135805</v>
+        <v>0.9780264016437833</v>
       </c>
     </row>
     <row r="9">
@@ -3155,19 +3155,19 @@
         <v>24496</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15719</v>
+        <v>15296</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>38480</v>
+        <v>36851</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.03945693401795808</v>
+        <v>0.03945693401795807</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02531972383475782</v>
+        <v>0.02463835232369862</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06198150614326346</v>
+        <v>0.05935764276844622</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>36</v>
@@ -3176,19 +3176,19 @@
         <v>27315</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19166</v>
+        <v>19268</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>37721</v>
+        <v>37515</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04390459179886112</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03080642436148162</v>
+        <v>0.03097115815193405</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06063070158254365</v>
+        <v>0.06029979009288747</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>55</v>
@@ -3197,19 +3197,19 @@
         <v>51811</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>38880</v>
+        <v>38540</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>67774</v>
+        <v>66726</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04168309310463606</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03127954730423501</v>
+        <v>0.03100616737879481</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05452548958474361</v>
+        <v>0.05368266480940586</v>
       </c>
     </row>
     <row r="11">
@@ -3226,19 +3226,19 @@
         <v>596341</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>582357</v>
+        <v>583986</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>605118</v>
+        <v>605541</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.960543065982042</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9380184938567366</v>
+        <v>0.9406423572315538</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9746802761652419</v>
+        <v>0.9753616476763015</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>810</v>
@@ -3247,19 +3247,19 @@
         <v>594824</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>584418</v>
+        <v>584624</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>602973</v>
+        <v>602871</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9560954082011389</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9393692984174562</v>
+        <v>0.9397002099071123</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9691935756385183</v>
+        <v>0.9690288418480658</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1337</v>
@@ -3268,19 +3268,19 @@
         <v>1191165</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1175202</v>
+        <v>1176250</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1204096</v>
+        <v>1204436</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.958316906895364</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9454745104152561</v>
+        <v>0.946317335190594</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9687204526957651</v>
+        <v>0.9689938326212051</v>
       </c>
     </row>
     <row r="12">
@@ -3372,19 +3372,19 @@
         <v>36756</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>25481</v>
+        <v>24650</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>50993</v>
+        <v>51235</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.05246196195121811</v>
+        <v>0.0524619619512181</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03636869639641089</v>
+        <v>0.03518302155294544</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07278363447397877</v>
+        <v>0.07312852254836429</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>51</v>
@@ -3393,19 +3393,19 @@
         <v>33574</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>25640</v>
+        <v>25279</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>43830</v>
+        <v>42844</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.04556267760205354</v>
+        <v>0.04556267760205356</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03479519382838463</v>
+        <v>0.03430535674617451</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05948024864113232</v>
+        <v>0.05814247951041846</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>82</v>
@@ -3414,19 +3414,19 @@
         <v>70330</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>55887</v>
+        <v>56997</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>85851</v>
+        <v>88455</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.04892528290109152</v>
+        <v>0.04892528290109153</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03887808279981544</v>
+        <v>0.0396499184002289</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05972199660164225</v>
+        <v>0.06153347683344946</v>
       </c>
     </row>
     <row r="14">
@@ -3443,19 +3443,19 @@
         <v>663861</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>649624</v>
+        <v>649382</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>675136</v>
+        <v>675967</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9475380380487819</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.927216365526021</v>
+        <v>0.9268714774516356</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9636313036035891</v>
+        <v>0.9648169784470541</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1090</v>
@@ -3464,19 +3464,19 @@
         <v>703312</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>693056</v>
+        <v>694042</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>711246</v>
+        <v>711607</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9544373223979463</v>
+        <v>0.9544373223979464</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9405197513588676</v>
+        <v>0.9418575204895815</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9652048061716153</v>
+        <v>0.9656946432538254</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1724</v>
@@ -3485,19 +3485,19 @@
         <v>1367174</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1351653</v>
+        <v>1349049</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1381617</v>
+        <v>1380507</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9510747170989083</v>
+        <v>0.9510747170989086</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9402780033983579</v>
+        <v>0.9384665231665508</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9611219172001845</v>
+        <v>0.9603500815997711</v>
       </c>
     </row>
     <row r="15">
@@ -3589,19 +3589,19 @@
         <v>17740</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10823</v>
+        <v>10506</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>27288</v>
+        <v>27558</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02911280937893618</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01776168518164737</v>
+        <v>0.01724136866641685</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04478262054942189</v>
+        <v>0.0452251029683876</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>52</v>
@@ -3610,19 +3610,19 @@
         <v>30705</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>23465</v>
+        <v>23331</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>39728</v>
+        <v>40788</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.05048775496955522</v>
+        <v>0.05048775496955523</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03858297588369197</v>
+        <v>0.03836209442966017</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06532293202101366</v>
+        <v>0.06706671382123811</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>71</v>
@@ -3631,19 +3631,19 @@
         <v>48445</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>37368</v>
+        <v>38239</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>60698</v>
+        <v>60181</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03978995984364036</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03069218462119653</v>
+        <v>0.03140704152448258</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04985367514588353</v>
+        <v>0.04942953825452764</v>
       </c>
     </row>
     <row r="17">
@@ -3660,19 +3660,19 @@
         <v>591606</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>582058</v>
+        <v>581788</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>598523</v>
+        <v>598840</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9708871906210635</v>
+        <v>0.9708871906210638</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9552173794505783</v>
+        <v>0.9547748970316124</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9822383148183528</v>
+        <v>0.9827586313335832</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>949</v>
@@ -3681,19 +3681,19 @@
         <v>577466</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>568443</v>
+        <v>567383</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>584706</v>
+        <v>584840</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9495122450304447</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9346770679789863</v>
+        <v>0.932933286178762</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9614170241163081</v>
+        <v>0.9616379055703397</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1593</v>
@@ -3702,19 +3702,19 @@
         <v>1169072</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1156819</v>
+        <v>1157336</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1180149</v>
+        <v>1179278</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9602100401563597</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9501463248541165</v>
+        <v>0.9505704617454723</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9693078153788034</v>
+        <v>0.9685929584755174</v>
       </c>
     </row>
     <row r="18">
@@ -3806,19 +3806,19 @@
         <v>3533</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1471</v>
+        <v>1175</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8223</v>
+        <v>7494</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.008679153273329264</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003614275516369162</v>
+        <v>0.002886307573160719</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02019950051350399</v>
+        <v>0.01840976447151995</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>25</v>
@@ -3827,19 +3827,19 @@
         <v>14270</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9720</v>
+        <v>9524</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>20490</v>
+        <v>20568</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.03249331080985481</v>
+        <v>0.03249331080985479</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02213247737475095</v>
+        <v>0.02168645990472632</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04665652151050791</v>
+        <v>0.04683494300097687</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>31</v>
@@ -3848,19 +3848,19 @@
         <v>17803</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>12106</v>
+        <v>12279</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>24906</v>
+        <v>24865</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02103770362805517</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01430520860430162</v>
+        <v>0.01450996806160736</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0294314349504939</v>
+        <v>0.02938227994496629</v>
       </c>
     </row>
     <row r="20">
@@ -3877,19 +3877,19 @@
         <v>403547</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>398857</v>
+        <v>399586</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>405609</v>
+        <v>405905</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9913208467266708</v>
+        <v>0.9913208467266709</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9798004994864959</v>
+        <v>0.9815902355284809</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9963857244836307</v>
+        <v>0.9971136924268392</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>802</v>
@@ -3898,19 +3898,19 @@
         <v>424896</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>418676</v>
+        <v>418598</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>429446</v>
+        <v>429642</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9675066891901452</v>
+        <v>0.967506689190145</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.953343478489492</v>
+        <v>0.9531650569990231</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9778675226252489</v>
+        <v>0.9783135400952737</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1366</v>
@@ -3919,19 +3919,19 @@
         <v>828443</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>821340</v>
+        <v>821381</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>834140</v>
+        <v>833967</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9789622963719447</v>
+        <v>0.9789622963719449</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9705685650495061</v>
+        <v>0.9706177200550337</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9856947913956984</v>
+        <v>0.9854900319383926</v>
       </c>
     </row>
     <row r="21">
@@ -4023,19 +4023,19 @@
         <v>3330</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1109</v>
+        <v>1087</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7412</v>
+        <v>7804</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01073555117318915</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.003574191448797927</v>
+        <v>0.003503275720685317</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0238931873992219</v>
+        <v>0.02515863573018041</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>19</v>
@@ -4044,19 +4044,19 @@
         <v>11545</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6606</v>
+        <v>7097</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>19202</v>
+        <v>18001</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0248813487435667</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01423750303743542</v>
+        <v>0.01529390782546163</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04138168471888085</v>
+        <v>0.03879398687376567</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>24</v>
@@ -4065,19 +4065,19 @@
         <v>14875</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>9289</v>
+        <v>9900</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>22666</v>
+        <v>22959</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.0192136406421894</v>
+        <v>0.01921364064218939</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01199789424696548</v>
+        <v>0.01278769463659078</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02927678816205182</v>
+        <v>0.02965483867070553</v>
       </c>
     </row>
     <row r="23">
@@ -4094,19 +4094,19 @@
         <v>306868</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>302786</v>
+        <v>302394</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>309089</v>
+        <v>309111</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9892644488268105</v>
+        <v>0.9892644488268107</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.976106812600778</v>
+        <v>0.9748413642698196</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9964258085512021</v>
+        <v>0.9964967242793147</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>861</v>
@@ -4115,19 +4115,19 @@
         <v>452468</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>444811</v>
+        <v>446012</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>457407</v>
+        <v>456916</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9751186512564333</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9586183152811191</v>
+        <v>0.9612060131262343</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9857624969625647</v>
+        <v>0.9847060921745383</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1314</v>
@@ -4136,19 +4136,19 @@
         <v>759336</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>751545</v>
+        <v>751252</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>764922</v>
+        <v>764311</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9807863593578107</v>
+        <v>0.9807863593578106</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9707232118379481</v>
+        <v>0.9703451613292955</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9880021057530346</v>
+        <v>0.9872123053634101</v>
       </c>
     </row>
     <row r="24">
@@ -4240,19 +4240,19 @@
         <v>117165</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>91860</v>
+        <v>94361</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>145491</v>
+        <v>146908</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03316528034664142</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0260022645803526</v>
+        <v>0.02671027860354879</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04118333009584633</v>
+        <v>0.04158450212502518</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>209</v>
@@ -4261,19 +4261,19 @@
         <v>157192</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>136875</v>
+        <v>132763</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>181722</v>
+        <v>180921</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04209791131418508</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03665668370703861</v>
+        <v>0.0355555203766823</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04866720368316724</v>
+        <v>0.04845278414953993</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>304</v>
@@ -4282,19 +4282,19 @@
         <v>274357</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>241470</v>
+        <v>242499</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>311414</v>
+        <v>313084</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0377552635361291</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03322955044249112</v>
+        <v>0.0333710686419047</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04285481048967529</v>
+        <v>0.043084504302183</v>
       </c>
     </row>
     <row r="26">
@@ -4311,19 +4311,19 @@
         <v>3415597</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3387271</v>
+        <v>3385854</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3440902</v>
+        <v>3438401</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9668347196533585</v>
+        <v>0.9668347196533587</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9588166699041536</v>
+        <v>0.9584154978749748</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9739977354196475</v>
+        <v>0.9732897213964511</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5153</v>
@@ -4332,19 +4332,19 @@
         <v>3576778</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3552248</v>
+        <v>3553049</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3597095</v>
+        <v>3601207</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9579020886858149</v>
+        <v>0.9579020886858147</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9513327963168327</v>
+        <v>0.9515472158504601</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9633433162929614</v>
+        <v>0.9644444796233176</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8434</v>
@@ -4353,19 +4353,19 @@
         <v>6992375</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6955318</v>
+        <v>6953648</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>7025262</v>
+        <v>7024233</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9622447364638709</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9571451895103248</v>
+        <v>0.9569154956978169</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.966770449557509</v>
+        <v>0.9666289313580954</v>
       </c>
     </row>
     <row r="27">
